--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F75DE2B-8F42-684E-A319-DC5C9C19C542}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{74359F86-CCD8-B343-839A-E0D7EBEE91E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25220" yWindow="3160" windowWidth="25140" windowHeight="12980" xr2:uid="{67B708E8-704C-B247-A3B9-E9C261F93726}"/>
+    <workbookView xWindow="11360" yWindow="7740" windowWidth="25140" windowHeight="12980" xr2:uid="{67B708E8-704C-B247-A3B9-E9C261F93726}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>AppVersion 4.18.1809.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AppVersion 4.18.1810.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Census_OSVersion 10.0.17134.345</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -124,7 +132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -180,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -190,7 +198,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="178" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+      <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,7 +535,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -544,7 +552,7 @@
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -689,10 +697,22 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="L7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{74359F86-CCD8-B343-839A-E0D7EBEE91E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{81FEE18C-F625-4945-AEF9-501A521563BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="7740" windowWidth="25140" windowHeight="12980" xr2:uid="{67B708E8-704C-B247-A3B9-E9C261F93726}"/>
+    <workbookView xWindow="23020" yWindow="4520" windowWidth="23520" windowHeight="13080" xr2:uid="{67B708E8-704C-B247-A3B9-E9C261F93726}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
@@ -125,14 +125,25 @@
   <si>
     <t>Census_OSVersion 10.0.17134.345</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0130-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0130-2</t>
+  </si>
+  <si>
+    <t>0130-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -184,11 +195,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -196,7 +210,10 @@
     <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="180" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     </dxf>
@@ -227,8 +244,8 @@
     <tableColumn id="7" xr3:uid="{D6D1A6ED-F4BF-A642-9062-82C04E79DA9F}" name="eta"/>
     <tableColumn id="8" xr3:uid="{47A6979D-CEE7-F947-9289-A66986F250FC}" name="nround mean"/>
     <tableColumn id="9" xr3:uid="{ECC61D7D-E2CE-1442-BE53-A503B258E4B2}" name="cv AUC mean"/>
-    <tableColumn id="10" xr3:uid="{79D352C1-1F9F-DD43-A0EF-C1F1F0067503}" name="oof AUC"/>
-    <tableColumn id="11" xr3:uid="{69B8185D-AD51-9B42-A776-3FBBC6F94B2C}" name="LB" dataDxfId="0" dataCellStyle="桁区切り [0]"/>
+    <tableColumn id="10" xr3:uid="{79D352C1-1F9F-DD43-A0EF-C1F1F0067503}" name="oof AUC" dataDxfId="0" dataCellStyle="桁区切り [0]"/>
+    <tableColumn id="11" xr3:uid="{69B8185D-AD51-9B42-A776-3FBBC6F94B2C}" name="LB" dataDxfId="1" dataCellStyle="桁区切り [0]"/>
     <tableColumn id="12" xr3:uid="{8C414846-5DD3-1949-AF0C-0E3AB77B6359}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -535,7 +552,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -550,7 +567,7 @@
     <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -586,7 +603,7 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -627,7 +644,7 @@
       <c r="J2">
         <v>0.73324999999999996</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>0.73324999999999996</v>
       </c>
       <c r="L2" s="1">
@@ -644,6 +661,9 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="K3" s="2">
+        <v>0.49980000000000002</v>
+      </c>
       <c r="L3" s="1">
         <v>0.54800000000000004</v>
       </c>
@@ -658,6 +678,9 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
+      <c r="K4" s="2">
+        <v>0.5</v>
+      </c>
       <c r="L4" s="1">
         <v>0.49099999999999999</v>
       </c>
@@ -672,6 +695,9 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="K5" s="2">
+        <v>0.5</v>
+      </c>
       <c r="L5" s="1">
         <v>0.5</v>
       </c>
@@ -686,6 +712,9 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
+      <c r="K6" s="2">
+        <v>0.49998999999999999</v>
+      </c>
       <c r="L6" s="1">
         <v>0.54900000000000004</v>
       </c>
@@ -697,6 +726,12 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.5</v>
+      </c>
       <c r="L7" s="1">
         <v>0.5</v>
       </c>
@@ -708,6 +743,12 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.5</v>
+      </c>
       <c r="L8" s="1">
         <v>0.51</v>
       </c>
@@ -718,6 +759,9 @@
     <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{81FEE18C-F625-4945-AEF9-501A521563BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23020" yWindow="4520" windowWidth="23520" windowHeight="13080" xr2:uid="{67B708E8-704C-B247-A3B9-E9C261F93726}"/>
+    <workbookView xWindow="23020" yWindow="4520" windowWidth="23520" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
@@ -135,17 +132,21 @@
   </si>
   <si>
     <t>0130-3</t>
+  </si>
+  <si>
+    <t>SmartScreen ExistsNotSet</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,20 +203,20 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="180" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
+      <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+      <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,22 +232,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C288096-F211-C048-8DCC-54E519CB29E5}" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
-  <autoFilter ref="A1:M21" xr:uid="{DD9C5497-82A4-5B4A-9BC0-F42A57823983}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AA6195B9-5133-1747-81FC-2C19A60ECF05}" name="#"/>
-    <tableColumn id="2" xr3:uid="{204471E8-44C4-D642-A687-8169C8C4DA73}" name="file"/>
-    <tableColumn id="13" xr3:uid="{03CA8FBB-8A60-1D47-AC71-0474E42F4142}" name="feature"/>
-    <tableColumn id="3" xr3:uid="{4ACF6930-9345-5544-9A91-5F6E0B004520}" name="feature size"/>
-    <tableColumn id="4" xr3:uid="{D726298B-98BA-0349-B5A2-AFFD7D9C4DCD}" name="category feature size"/>
-    <tableColumn id="5" xr3:uid="{45D0FBC1-CE79-0745-A1A6-9E3EA049492B}" name="nfold"/>
-    <tableColumn id="6" xr3:uid="{75AB32D4-CEC7-8A49-99BC-2D2D74CB14C5}" name="loop"/>
-    <tableColumn id="7" xr3:uid="{D6D1A6ED-F4BF-A642-9062-82C04E79DA9F}" name="eta"/>
-    <tableColumn id="8" xr3:uid="{47A6979D-CEE7-F947-9289-A66986F250FC}" name="nround mean"/>
-    <tableColumn id="9" xr3:uid="{ECC61D7D-E2CE-1442-BE53-A503B258E4B2}" name="cv AUC mean"/>
-    <tableColumn id="10" xr3:uid="{79D352C1-1F9F-DD43-A0EF-C1F1F0067503}" name="oof AUC" dataDxfId="0" dataCellStyle="桁区切り [0]"/>
-    <tableColumn id="11" xr3:uid="{69B8185D-AD51-9B42-A776-3FBBC6F94B2C}" name="LB" dataDxfId="1" dataCellStyle="桁区切り [0]"/>
-    <tableColumn id="12" xr3:uid="{8C414846-5DD3-1949-AF0C-0E3AB77B6359}" name="description"/>
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="2" name="file"/>
+    <tableColumn id="13" name="feature"/>
+    <tableColumn id="3" name="feature size"/>
+    <tableColumn id="4" name="category feature size"/>
+    <tableColumn id="5" name="nfold"/>
+    <tableColumn id="6" name="loop"/>
+    <tableColumn id="7" name="eta"/>
+    <tableColumn id="8" name="nround mean"/>
+    <tableColumn id="9" name="cv AUC mean"/>
+    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -295,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -347,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -541,35 +542,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294E8647-F0C0-6847-8BB4-04415514C392}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -762,6 +763,15 @@
       </c>
       <c r="B9" t="s">
         <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.57213000000000003</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -830,5 +840,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23020" yWindow="4520" windowWidth="23520" windowHeight="13080"/>
+    <workbookView xWindow="7560" yWindow="11560" windowWidth="29480" windowHeight="14280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
+    <sheet name="probed" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,70 +23,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>#</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>file</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>feature size</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>category feature size</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>nfold</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>loop</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>nround mean</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>cv AUC mean</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>oof AUC</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>eta</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>0129-1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>LB</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>first submission</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>feature</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>f001, f002</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>0129-2</t>
@@ -101,31 +102,31 @@
   </si>
   <si>
     <t>EngineVersion 1.1.15300.6</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EngineVersion 1.1.15400.4</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EngineVersion 1.1.15400.5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AppVersion 4.18.1809.2</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AppVersion 4.18.1810.5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Census_OSVersion 10.0.17134.345</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>0130-1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>0130-2</t>
@@ -135,18 +136,210 @@
   </si>
   <si>
     <t>SmartScreen ExistsNotSet</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>train ratio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>test ratio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>train AUC</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Grande"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EngineVersion</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>﻿1.1.15300.6</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>﻿1.1.15400.4</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1.15400.5</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Grande"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AppVersion</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>﻿4.18.1809.2</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4.18.1810.5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Grande"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SmartScreen</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>﻿ExistsNotSet</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Census_OSVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>﻿10.0.17134.345</t>
+    </r>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +363,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,15 +405,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,10 +430,19 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -542,7 +775,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -835,7 +1068,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -846,4 +1079,205 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.3484E-4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.39490700000000001</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.26819900000000002</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.18989200000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.5399999999999999E-3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.34873700000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.18989200000000001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.117266</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7.6457999999999998E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.57213496600000002</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.17541300000000001</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="11560" windowWidth="29480" windowHeight="14280" activeTab="1"/>
+    <workbookView xWindow="26540" yWindow="8700" windowWidth="11480" windowHeight="14340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +413,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,12 +455,18 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -775,7 +799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1086,13 +1110,13 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8109D17A-4A8A-174D-82E3-1BF5DBC283E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26540" yWindow="8700" windowWidth="11480" windowHeight="14340" activeTab="1"/>
+    <workbookView xWindow="7140" yWindow="4680" windowWidth="25440" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -34,10 +40,6 @@
   </si>
   <si>
     <t>feature size</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>category feature size</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -319,11 +321,79 @@
     </r>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>0223-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f009全部突っ込んだ</t>
+    <rPh sb="0" eb="1">
+      <t>ゼn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009~012</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f009~f012 top50</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0224-1_single</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-1_single</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f009 f013 top50, Census_OS以外が悪さしている</t>
+    <rPh sb="0" eb="2">
+      <t>タブn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f013</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-2_single</t>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>instance-1-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-3_single</t>
+  </si>
+  <si>
+    <t>0223-1 + f012</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0223-1 + f010</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>instance-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -331,7 +401,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,7 +531,7 @@
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
@@ -489,22 +559,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
-  <autoFilter ref="A1:M21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="file"/>
-    <tableColumn id="13" name="feature"/>
-    <tableColumn id="3" name="feature size"/>
-    <tableColumn id="4" name="category feature size"/>
-    <tableColumn id="5" name="nfold"/>
-    <tableColumn id="6" name="loop"/>
-    <tableColumn id="7" name="eta"/>
-    <tableColumn id="8" name="nround mean"/>
-    <tableColumn id="9" name="cv AUC mean"/>
-    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" name="description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
+    <tableColumn id="4" xr3:uid="{8EBD6EC2-7AE8-6841-9EC0-E13344A7E5B3}" name="instance"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -799,35 +869,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -838,37 +908,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -876,16 +946,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
         <v>81</v>
-      </c>
-      <c r="E2">
-        <v>29</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -909,7 +976,7 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -917,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2">
         <v>0.49980000000000002</v>
@@ -926,7 +993,7 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -934,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="2">
         <v>0.5</v>
@@ -943,7 +1010,7 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -951,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="2">
         <v>0.5</v>
@@ -960,7 +1027,7 @@
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -968,7 +1035,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2">
         <v>0.49998999999999999</v>
@@ -977,7 +1044,7 @@
         <v>0.54900000000000004</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -985,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2">
         <v>0.5</v>
@@ -994,7 +1061,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1002,7 +1069,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2">
         <v>0.5</v>
@@ -1011,7 +1078,7 @@
         <v>0.51</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1019,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="2">
         <v>0.57213000000000003</v>
@@ -1028,32 +1095,110 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>315</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>290</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>290</v>
+      </c>
+      <c r="J12">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1106,48 +1251,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="5">
         <v>1.3484E-4</v>
@@ -1164,10 +1309,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -1184,10 +1329,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -1204,10 +1349,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C5" s="5">
         <v>1.5399999999999999E-3</v>
@@ -1224,10 +1369,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -1244,10 +1389,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C7" s="5">
         <v>0.117266</v>
@@ -1264,10 +1409,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8109D17A-4A8A-174D-82E3-1BF5DBC283E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4C43CACC-BD6B-1A42-87A5-0D790D64412E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="4680" windowWidth="25440" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6040" yWindow="11020" windowWidth="25440" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -880,7 +880,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4C43CACC-BD6B-1A42-87A5-0D790D64412E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{93B78297-DEE6-D84A-AA48-847DB84A2855}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="11020" windowWidth="25440" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="8020" windowWidth="25440" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -387,6 +387,22 @@
   </si>
   <si>
     <t>instance-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>instance-1-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0255-1+ top200</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-1 top200</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -623,7 +639,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -675,7 +691,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -880,7 +896,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -1204,6 +1220,18 @@
     <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,35 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{93B78297-DEE6-D84A-AA48-847DB84A2855}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="8020" windowWidth="25440" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8380" yWindow="6660" windowWidth="38260" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -405,11 +399,15 @@
     <t>0225-1 top200</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Appはダメ</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -417,7 +415,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -547,7 +545,7 @@
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
@@ -575,22 +573,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
-  <autoFilter ref="A1:M21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
-    <tableColumn id="4" xr3:uid="{8EBD6EC2-7AE8-6841-9EC0-E13344A7E5B3}" name="instance"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="2" name="file"/>
+    <tableColumn id="4" name="instance"/>
+    <tableColumn id="13" name="feature"/>
+    <tableColumn id="3" name="feature size"/>
+    <tableColumn id="5" name="nfold"/>
+    <tableColumn id="6" name="loop"/>
+    <tableColumn id="7" name="eta"/>
+    <tableColumn id="8" name="nround mean"/>
+    <tableColumn id="9" name="cv AUC mean"/>
+    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -639,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -691,7 +689,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -885,35 +883,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1201,6 +1199,15 @@
       </c>
       <c r="D13" t="s">
         <v>58</v>
+      </c>
+      <c r="J13">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1279,20 +1286,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="6660" windowWidth="38260" windowHeight="14640"/>
+    <workbookView xWindow="16620" yWindow="9060" windowWidth="30060" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -401,6 +401,10 @@
   </si>
   <si>
     <t>Appはダメ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OsVerもダメ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -883,7 +887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -894,7 +898,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1222,6 +1226,12 @@
       </c>
       <c r="D14" t="s">
         <v>59</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{586E73BB-9C31-9948-84E5-7474F36A24B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="9060" windowWidth="30060" windowHeight="12420"/>
+    <workbookView xWindow="15560" yWindow="2220" windowWidth="28600" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -396,22 +402,33 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>0225-1 top200</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Appはダメ</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>OsVerもダメ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>importance based意味なし</t>
+    <rPh sb="0" eb="2">
+      <t>イm</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0226-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0223-1 + f011</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -419,7 +436,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,7 +566,7 @@
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
@@ -577,22 +594,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
-  <autoFilter ref="A1:M21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="file"/>
-    <tableColumn id="4" name="instance"/>
-    <tableColumn id="13" name="feature"/>
-    <tableColumn id="3" name="feature size"/>
-    <tableColumn id="5" name="nfold"/>
-    <tableColumn id="6" name="loop"/>
-    <tableColumn id="7" name="eta"/>
-    <tableColumn id="8" name="nround mean"/>
-    <tableColumn id="9" name="cv AUC mean"/>
-    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" name="description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -887,35 +904,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1211,7 +1228,7 @@
         <v>0.69</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1231,7 +1248,7 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1247,13 +1264,25 @@
       <c r="D15" t="s">
         <v>63</v>
       </c>
+      <c r="L15" s="1">
+        <v>0.70399999999999996</v>
+      </c>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -1296,20 +1325,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{586E73BB-9C31-9948-84E5-7474F36A24B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C73973CB-7F2B-844F-823C-CFF5BC374A58}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="2220" windowWidth="28600" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12520" yWindow="4500" windowWidth="26580" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -422,6 +422,24 @@
   </si>
   <si>
     <t>0223-1 + f011</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0226-2</t>
+  </si>
+  <si>
+    <t>0226-3</t>
+  </si>
+  <si>
+    <t>0223-1 + f014</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-1 top25</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f009 f013 top25</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -915,7 +933,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -1284,28 +1302,52 @@
       <c r="D16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="L16" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C73973CB-7F2B-844F-823C-CFF5BC374A58}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7500F155-A8CA-544B-841A-6BF2ED7F0A4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="4500" windowWidth="26580" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="77960" yWindow="9720" windowWidth="20800" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -440,6 +440,20 @@
   </si>
   <si>
     <t>f009 f013 top25</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0226-4</t>
+  </si>
+  <si>
+    <t>instance-1-2</t>
+  </si>
+  <si>
+    <t>0225-1 top100</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>engineもダメ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -676,7 +690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -728,7 +742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -932,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -1305,6 +1319,9 @@
       <c r="L16" s="1">
         <v>0.7</v>
       </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
@@ -1340,6 +1357,15 @@
     <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7500F155-A8CA-544B-841A-6BF2ED7F0A4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{55A65355-C57D-6846-9A9B-7902B952822D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77960" yWindow="9720" windowWidth="20800" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53340" yWindow="5860" windowWidth="20800" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -454,6 +454,16 @@
   </si>
   <si>
     <t>engineもダメ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0226-5</t>
+  </si>
+  <si>
+    <t>instance-1-3</t>
+  </si>
+  <si>
+    <t>0223-1 + f015</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -947,7 +957,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -1371,6 +1381,15 @@
     <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{55A65355-C57D-6846-9A9B-7902B952822D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="53340" yWindow="5860" windowWidth="20800" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14000" yWindow="9700" windowWidth="30520" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -466,11 +461,43 @@
     <t>0223-1 + f015</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>nyanp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ONODERA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ireko</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tosh</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AvSigはOK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0227-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f013 f014</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -478,7 +505,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,7 +579,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,8 +611,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,19 +652,36 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -636,22 +704,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M21" totalsRowShown="0">
-  <autoFilter ref="A1:M21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M27" totalsRowShown="0">
+  <autoFilter ref="A1:M27"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="2" name="file"/>
+    <tableColumn id="4" name="instance"/>
+    <tableColumn id="13" name="feature"/>
+    <tableColumn id="3" name="feature size"/>
+    <tableColumn id="5" name="nfold"/>
+    <tableColumn id="6" name="loop"/>
+    <tableColumn id="7" name="eta"/>
+    <tableColumn id="8" name="nround mean"/>
+    <tableColumn id="9" name="cv AUC mean"/>
+    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -700,7 +768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -752,7 +820,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -946,35 +1014,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1346,6 +1414,12 @@
       <c r="D17" t="s">
         <v>71</v>
       </c>
+      <c r="L17" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
@@ -1360,6 +1434,9 @@
       <c r="D18" t="s">
         <v>72</v>
       </c>
+      <c r="L18" s="1">
+        <v>0.70099999999999996</v>
+      </c>
       <c r="M18" t="s">
         <v>73</v>
       </c>
@@ -1377,6 +1454,9 @@
       <c r="D19" t="s">
         <v>76</v>
       </c>
+      <c r="L19" s="1">
+        <v>0.70399999999999996</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
@@ -1396,10 +1476,35 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1412,20 +1517,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1610,4 +1715,72 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="9700" windowWidth="30520" windowHeight="12660"/>
+    <workbookView xWindow="6120" yWindow="6420" windowWidth="29600" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -491,6 +491,13 @@
   </si>
   <si>
     <t>nejumi + f009 f013 f014</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0227-2</t>
+  </si>
+  <si>
+    <t>0223-1 + f016</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -579,7 +586,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,6 +594,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -672,6 +703,10 @@
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -682,6 +717,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1024,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1033,14 +1072,14 @@
     <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="13.625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1480,9 +1519,20 @@
         <v>87</v>
       </c>
       <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>88</v>
       </c>
     </row>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="6420" windowWidth="29600" windowHeight="14160"/>
+    <workbookView xWindow="14780" yWindow="8980" windowWidth="29600" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -498,6 +498,13 @@
   </si>
   <si>
     <t>0223-1 + f016</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C_OS revision無視はダメ</t>
+    <rPh sb="13" eb="18">
+      <t>ムs</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1064,7 +1071,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1509,6 +1516,12 @@
       </c>
       <c r="D20" t="s">
         <v>80</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="M20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7AF18993-7206-3642-8596-025BEB81C0FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="8980" windowWidth="29600" windowHeight="14160"/>
+    <workbookView xWindow="76720" yWindow="10580" windowWidth="21940" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -507,11 +513,29 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>0227-3</t>
+  </si>
+  <si>
+    <t>top75</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>top150</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AvSig revision無視は?</t>
+    <rPh sb="13" eb="18">
+      <t>ムs</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -519,7 +543,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -714,7 +738,7 @@
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
@@ -750,22 +774,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M27" totalsRowShown="0">
-  <autoFilter ref="A1:M27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M27" totalsRowShown="0">
+  <autoFilter ref="A1:M27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="file"/>
-    <tableColumn id="4" name="instance"/>
-    <tableColumn id="13" name="feature"/>
-    <tableColumn id="3" name="feature size"/>
-    <tableColumn id="5" name="nfold"/>
-    <tableColumn id="6" name="loop"/>
-    <tableColumn id="7" name="eta"/>
-    <tableColumn id="8" name="nround mean"/>
-    <tableColumn id="9" name="cv AUC mean"/>
-    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" name="description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1060,35 +1084,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="13.625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1537,6 +1561,9 @@
       <c r="D21" t="s">
         <v>90</v>
       </c>
+      <c r="M21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="B22" t="s">
@@ -1547,6 +1574,23 @@
       </c>
       <c r="D22" t="s">
         <v>88</v>
+      </c>
+      <c r="M22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1580,20 +1624,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1781,14 +1825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7AF18993-7206-3642-8596-025BEB81C0FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB083947-65C1-DB42-B1F1-59328B5E33AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76720" yWindow="10580" windowWidth="21940" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="76580" yWindow="6980" windowWidth="21940" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -529,6 +529,17 @@
     <rPh sb="13" eb="18">
       <t>ムs</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>instance-1-4</t>
+  </si>
+  <si>
+    <t>0223-1 + f017</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0223-1 + f018</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1095,7 +1106,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -1591,6 +1602,22 @@
       </c>
       <c r="M23" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB083947-65C1-DB42-B1F1-59328B5E33AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76580" yWindow="6980" windowWidth="21940" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="1500" windowWidth="21940" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -546,7 +548,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -554,7 +556,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -785,22 +787,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M27" totalsRowShown="0">
-  <autoFilter ref="A1:M27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M27" totalsRowShown="0">
+  <autoFilter ref="A1:M27"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="2" name="file"/>
+    <tableColumn id="4" name="instance"/>
+    <tableColumn id="13" name="feature"/>
+    <tableColumn id="3" name="feature size"/>
+    <tableColumn id="5" name="nfold"/>
+    <tableColumn id="6" name="loop"/>
+    <tableColumn id="7" name="eta"/>
+    <tableColumn id="8" name="nround mean"/>
+    <tableColumn id="9" name="cv AUC mean"/>
+    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1102,14 +1104,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.5703125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -1126,7 +1128,7 @@
     <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1222,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1290,7 +1292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1307,7 +1309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1324,7 +1326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1350,7 +1352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1376,7 +1378,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1422,7 +1424,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1462,7 +1464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1482,7 +1484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1522,7 +1524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1559,7 +1561,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1572,11 +1574,14 @@
       <c r="D21" t="s">
         <v>90</v>
       </c>
+      <c r="L21" s="1">
+        <v>0.69399999999999995</v>
+      </c>
       <c r="M21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>89</v>
       </c>
@@ -1590,7 +1595,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>79</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>96</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1642,23 +1647,18 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -1667,7 +1667,7 @@
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -1843,25 +1843,20 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -1869,7 +1864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1877,7 +1872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1885,7 +1880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -1893,7 +1888,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1901,7 +1896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>SUM(B2:B6)</f>
         <v>246</v>
@@ -1911,10 +1906,5 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="1500" windowWidth="21940" windowHeight="16500"/>
+    <workbookView xWindow="11960" yWindow="880" windowWidth="16580" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.5703125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{74041E25-E281-944B-B8E4-4F9FC6A568AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="880" windowWidth="16580" windowHeight="16260"/>
+    <workbookView xWindow="75880" yWindow="9540" windowWidth="21100" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -527,28 +528,34 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>AvSig revision無視は?</t>
+    <t>instance-1-4</t>
+  </si>
+  <si>
+    <t>0223-1 + f017</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0223-1 + f018</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0227-4</t>
+  </si>
+  <si>
+    <t>0227-5</t>
+  </si>
+  <si>
+    <t>AvSig revision無視はだめ</t>
     <rPh sb="13" eb="18">
       <t>ムs</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>instance-1-4</t>
-  </si>
-  <si>
-    <t>0223-1 + f017</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0223-1 + f018</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -556,7 +563,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -613,12 +620,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -711,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +747,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,22 +809,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M27" totalsRowShown="0">
-  <autoFilter ref="A1:M27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M27" totalsRowShown="0">
+  <autoFilter ref="A1:M27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="file"/>
-    <tableColumn id="4" name="instance"/>
-    <tableColumn id="13" name="feature"/>
-    <tableColumn id="3" name="feature size"/>
-    <tableColumn id="5" name="nfold"/>
-    <tableColumn id="6" name="loop"/>
-    <tableColumn id="7" name="eta"/>
-    <tableColumn id="8" name="nround mean"/>
-    <tableColumn id="9" name="cv AUC mean"/>
-    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" name="description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1104,14 +1126,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="A17" sqref="A17:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="10.5703125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -1122,13 +1144,13 @@
     <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1207,7 +1229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1224,7 +1246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1241,7 +1263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1258,7 +1280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1275,7 +1297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1292,7 +1314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1352,7 +1374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1378,7 +1400,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1401,7 +1423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1424,7 +1446,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1444,7 +1466,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1464,7 +1486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1484,27 +1506,36 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:13">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="1">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14">
         <v>0.70599999999999996</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1524,7 +1555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1541,7 +1572,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1561,7 +1592,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1578,10 +1609,10 @@
         <v>0.69399999999999995</v>
       </c>
       <c r="M21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="B22" t="s">
         <v>89</v>
       </c>
@@ -1591,11 +1622,14 @@
       <c r="D22" t="s">
         <v>88</v>
       </c>
+      <c r="L22" s="1">
+        <v>0.70399999999999996</v>
+      </c>
       <c r="M22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -1605,27 +1639,36 @@
       <c r="D23" t="s">
         <v>88</v>
       </c>
+      <c r="L23" s="1">
+        <v>0.70399999999999996</v>
+      </c>
       <c r="M23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
       <c r="C24" t="s">
         <v>79</v>
       </c>
       <c r="D24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1651,14 +1694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -1667,7 +1710,7 @@
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1687,7 +1730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1707,7 +1750,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1727,7 +1770,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1747,7 +1790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1767,7 +1810,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1787,7 +1830,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1807,7 +1850,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -1847,16 +1890,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -1864,7 +1907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1872,7 +1915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1880,7 +1923,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -1888,7 +1931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1896,7 +1939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="B7">
         <f>SUM(B2:B6)</f>
         <v>246</v>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{74041E25-E281-944B-B8E4-4F9FC6A568AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB359D15-36D7-6143-BCF3-E3C5179088C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75880" yWindow="9540" windowWidth="21100" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -549,6 +549,14 @@
     <rPh sb="13" eb="18">
       <t>ムs</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0228-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-1 + f014</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -809,8 +817,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M27" totalsRowShown="0">
-  <autoFilter ref="A1:M27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M30" totalsRowShown="0">
+  <autoFilter ref="A1:M30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
@@ -1129,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:M17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -1666,6 +1674,17 @@
       </c>
       <c r="D25" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,39 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB359D15-36D7-6143-BCF3-E3C5179088C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75880" yWindow="9540" windowWidth="21100" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7700" yWindow="1480" windowWidth="21100" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -341,10 +340,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>nejumi + f009~012</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>f009~f012 top50</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -364,10 +359,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>nejumi + f009 f013</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>0225-2_single</t>
   </si>
   <si>
@@ -382,14 +373,6 @@
     <t>0225-3_single</t>
   </si>
   <si>
-    <t>0223-1 + f012</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0223-1 + f010</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>instance-1</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -399,10 +382,6 @@
   </si>
   <si>
     <t>0225-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0255-1+ top200</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -425,24 +404,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>0223-1 + f011</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>0226-2</t>
   </si>
   <si>
     <t>0226-3</t>
   </si>
   <si>
-    <t>0223-1 + f014</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0225-1 top25</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>f009 f013 top25</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -467,10 +434,6 @@
     <t>instance-1-3</t>
   </si>
   <si>
-    <t>0223-1 + f015</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>nyanp</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -504,10 +467,6 @@
   </si>
   <si>
     <t>0227-2</t>
-  </si>
-  <si>
-    <t>0223-1 + f016</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>C_OS revision無視はダメ</t>
@@ -531,14 +490,6 @@
     <t>instance-1-4</t>
   </si>
   <si>
-    <t>0223-1 + f017</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0223-1 + f018</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>0227-4</t>
   </si>
   <si>
@@ -559,11 +510,69 @@
     <t>0225-1 + f014</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>0228-2</t>
+  </si>
+  <si>
+    <t>0228-3</t>
+  </si>
+  <si>
+    <t>nejumi + top50(f009~012)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + top50(f009 f013)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-1 top25(f009 f013)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f012</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f010</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f011</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-1+ top200</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f015</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f016</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f014</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f017</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f018</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f014 top50(f019)</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -571,7 +580,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -817,22 +826,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M30" totalsRowShown="0">
-  <autoFilter ref="A1:M30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M30" totalsRowShown="0">
+  <autoFilter ref="A1:M30"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="2" name="file"/>
+    <tableColumn id="4" name="instance"/>
+    <tableColumn id="13" name="feature"/>
+    <tableColumn id="3" name="feature size"/>
+    <tableColumn id="5" name="nfold"/>
+    <tableColumn id="6" name="loop"/>
+    <tableColumn id="7" name="eta"/>
+    <tableColumn id="8" name="nround mean"/>
+    <tableColumn id="9" name="cv AUC mean"/>
+    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1134,19 +1143,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.5703125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
@@ -1158,7 +1167,7 @@
     <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -1199,7 +1208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1271,7 +1280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1382,15 +1391,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>290</v>
@@ -1405,18 +1414,18 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>290</v>
@@ -1428,21 +1437,21 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="J13">
         <v>0.74350000000000005</v>
@@ -1451,81 +1460,81 @@
         <v>0.69</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="L14" s="1">
         <v>0.69099999999999995</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="L15" s="1">
         <v>0.70399999999999996</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="L16" s="1">
         <v>0.7</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1540,158 +1549,173 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L18" s="1">
         <v>0.70099999999999996</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L19" s="1">
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L20" s="1">
         <v>0.69399999999999995</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="L21" s="1">
         <v>0.69399999999999995</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L22" s="1">
         <v>0.70399999999999996</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L23" s="1">
         <v>0.70399999999999996</v>
       </c>
       <c r="M23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>103</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>104</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -1701,6 +1725,11 @@
       <c r="K27" s="10"/>
       <c r="L27" s="11"/>
       <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1713,14 +1742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -1729,7 +1758,7 @@
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1749,7 +1778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1769,7 +1798,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1789,7 +1818,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1809,7 +1838,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1829,7 +1858,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1849,7 +1878,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1869,7 +1898,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -1909,56 +1938,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>SUM(B2:B6)</f>
         <v>246</v>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="1480" windowWidth="21100" windowHeight="16520"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="21100" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -566,6 +566,17 @@
   </si>
   <si>
     <t>nejumi + f009 f014 top50(f019)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0228-4</t>
+  </si>
+  <si>
+    <t>nejumi + f009 f014 top50(f019) drop monitor_dims</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f014 top50(f019) drop Census_SystemVolumeTotalCapacity</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1144,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.5703125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1729,6 +1740,23 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -352,13 +352,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>f009 f013 top50, Census_OS以外が悪さしている</t>
-    <rPh sb="0" eb="2">
-      <t>タブn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>0225-2_single</t>
   </si>
   <si>
@@ -577,6 +570,10 @@
   </si>
   <si>
     <t>nejumi + f009 f014 top50(f019) drop Census_SystemVolumeTotalCapacity</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Census_OS以外が悪さしている</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1157,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.5703125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1186,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -1410,7 +1407,7 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>290</v>
@@ -1436,7 +1433,7 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>290</v>
@@ -1448,7 +1445,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1456,13 +1453,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13">
         <v>0.74350000000000005</v>
@@ -1471,7 +1468,7 @@
         <v>0.69</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1479,19 +1476,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L14" s="1">
         <v>0.69099999999999995</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1499,19 +1496,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L15" s="1">
         <v>0.70399999999999996</v>
       </c>
       <c r="M15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1519,19 +1516,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L16" s="1">
         <v>0.7</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1539,13 +1536,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1560,7 +1557,7 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1568,19 +1565,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L18" s="1">
         <v>0.70099999999999996</v>
       </c>
       <c r="M18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1588,13 +1585,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>67</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
       </c>
       <c r="L19" s="1">
         <v>0.70399999999999996</v>
@@ -1605,19 +1602,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L20" s="1">
         <v>0.69399999999999995</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1625,64 +1622,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L21" s="1">
         <v>0.69399999999999995</v>
       </c>
       <c r="M21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L22" s="1">
         <v>0.70399999999999996</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L23" s="1">
         <v>0.70399999999999996</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L24" s="1">
         <v>0.69699999999999995</v>
@@ -1690,13 +1687,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L25" s="1">
         <v>0.69399999999999995</v>
@@ -1704,13 +1701,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
         <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
       </c>
       <c r="L26" s="1">
         <v>0.70399999999999996</v>
@@ -1719,13 +1716,13 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1739,24 +1736,24 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1977,7 +1974,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -1985,7 +1982,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -1993,7 +1990,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>127</v>
@@ -2001,7 +1998,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>59</v>
@@ -2009,7 +2006,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>10</v>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="21100" windowHeight="16520"/>
+    <workbookView xWindow="5480" yWindow="460" windowWidth="22520" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="116">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -397,9 +397,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>0226-2</t>
-  </si>
-  <si>
     <t>0226-3</t>
   </si>
   <si>
@@ -575,6 +572,33 @@
   <si>
     <t>Census_OS以外が悪さしている</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0228-5</t>
+  </si>
+  <si>
+    <t>0226-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-1 0226-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0229-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0229-2</t>
+  </si>
+  <si>
+    <t>0229-3</t>
+  </si>
+  <si>
+    <t>0229-4</t>
+  </si>
+  <si>
+    <t>0229-5</t>
   </si>
 </sst>
 </file>
@@ -834,8 +858,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M30" totalsRowShown="0">
-  <autoFilter ref="A1:M30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M35" totalsRowShown="0">
+  <autoFilter ref="A1:M35"/>
   <tableColumns count="13">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="file"/>
@@ -1152,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.5703125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1407,7 +1431,7 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>290</v>
@@ -1433,7 +1457,7 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12">
         <v>290</v>
@@ -1445,7 +1469,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1459,7 +1483,7 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13">
         <v>0.74350000000000005</v>
@@ -1482,7 +1506,7 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L14" s="1">
         <v>0.69099999999999995</v>
@@ -1502,7 +1526,7 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L15" s="1">
         <v>0.70399999999999996</v>
@@ -1522,13 +1546,13 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L16" s="1">
         <v>0.7</v>
       </c>
       <c r="M16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1536,13 +1560,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1557,7 +1581,7 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1565,19 +1589,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L18" s="1">
         <v>0.70099999999999996</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1585,13 +1609,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
       </c>
       <c r="L19" s="1">
         <v>0.70399999999999996</v>
@@ -1602,19 +1626,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L20" s="1">
         <v>0.69399999999999995</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1622,107 +1646,124 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L21" s="1">
         <v>0.69399999999999995</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L22" s="1">
         <v>0.70399999999999996</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L23" s="1">
         <v>0.70399999999999996</v>
       </c>
       <c r="M23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L24" s="1">
         <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L25" s="1">
         <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L26" s="1">
         <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1731,29 +1772,112 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
+      <c r="L27" s="11">
+        <v>0.70399999999999996</v>
+      </c>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
       </c>
       <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>107</v>
+      <c r="L29" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +2098,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -1982,7 +2106,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -1990,7 +2114,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>127</v>
@@ -1998,7 +2122,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>59</v>
@@ -2006,7 +2130,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>10</v>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="460" windowWidth="22520" windowHeight="14020"/>
+    <workbookView xWindow="7920" yWindow="460" windowWidth="20180" windowHeight="15700"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -543,62 +543,66 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>nejumi + f009 f017</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f018</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f014 top50(f019)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0228-4</t>
+  </si>
+  <si>
+    <t>Census_OS以外が悪さしている</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0228-5</t>
+  </si>
+  <si>
+    <t>0226-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0225-1 0226-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f014</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f014 top50(f019) drop monitor_dims</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f009 f014 top50(f019) drop Census_SystemVolumeTotalCapacity</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0301-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0301-2</t>
+  </si>
+  <si>
+    <t>0301-3</t>
+  </si>
+  <si>
+    <t>0301-4</t>
+  </si>
+  <si>
+    <t>0301-5</t>
+  </si>
+  <si>
     <t>nejumi + f009 f014</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nejumi + f009 f017</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nejumi + f009 f018</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nejumi + f009 f014 top50(f019)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0228-4</t>
-  </si>
-  <si>
-    <t>nejumi + f009 f014 top50(f019) drop monitor_dims</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nejumi + f009 f014 top50(f019) drop Census_SystemVolumeTotalCapacity</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Census_OS以外が悪さしている</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0228-5</t>
-  </si>
-  <si>
-    <t>0226-2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0225-1 0226-2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0229-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0229-2</t>
-  </si>
-  <si>
-    <t>0229-3</t>
-  </si>
-  <si>
-    <t>0229-4</t>
-  </si>
-  <si>
-    <t>0229-5</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.5703125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1240,7 +1244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="M12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1560,13 +1564,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1712,7 +1716,7 @@
         <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L24" s="1">
         <v>0.69699999999999995</v>
@@ -1729,7 +1733,7 @@
         <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L25" s="1">
         <v>0.69399999999999995</v>
@@ -1763,7 +1767,7 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1788,7 +1792,7 @@
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L28" s="1">
         <v>0.70199999999999996</v>
@@ -1799,13 +1803,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L29" s="1">
         <v>0.70199999999999996</v>
@@ -1816,10 +1820,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L30" s="1">
         <v>0.70699999999999996</v>
@@ -1834,6 +1838,9 @@
       </c>
       <c r="C31" t="s">
         <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="460" windowWidth="20180" windowHeight="15700"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="20180" windowHeight="15700"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>nejumi + f009 f014</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>instance-1-pre1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>instance-1-pre2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>instance-1-pre3</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1183,7 +1195,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.5703125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1851,7 +1863,7 @@
         <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1862,7 +1874,7 @@
         <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1873,7 +1885,7 @@
         <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="20180" windowHeight="15700"/>
+    <workbookView xWindow="26820" yWindow="2400" windowWidth="23720" windowHeight="18700"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -614,6 +609,10 @@
   </si>
   <si>
     <t>instance-1-pre3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0228-5 0301-1</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -838,7 +837,7 @@
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
@@ -874,8 +873,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M35" totalsRowShown="0">
-  <autoFilter ref="A1:M35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M47" totalsRowShown="0">
+  <autoFilter ref="A1:M47"/>
   <tableColumns count="13">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="file"/>
@@ -1184,7 +1183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1192,30 +1191,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="10.5703125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="13.625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="20" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="20" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1328,7 +1327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="20" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="20" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1362,7 +1361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="20" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1379,7 +1378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="20" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="20" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -1600,7 +1599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1793,7 +1792,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1854,8 +1853,11 @@
       <c r="D31" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L31" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1865,8 +1867,11 @@
       <c r="C32" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L32" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1876,8 +1881,11 @@
       <c r="C33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L33" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1887,16 +1895,79 @@
       <c r="C34" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L34" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
-        <v>83</v>
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1906,6 +1977,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1917,16 +1993,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1946,7 +2022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1966,7 +2042,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1986,7 +2062,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -2006,7 +2082,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -2026,7 +2102,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2046,7 +2122,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -2066,7 +2142,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -2102,6 +2178,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2113,9 +2194,9 @@
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2123,7 +2204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2131,7 +2212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2139,7 +2220,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -2147,7 +2228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2155,7 +2236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="B7">
         <f>SUM(B2:B6)</f>
         <v>246</v>
@@ -2165,5 +2246,10 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B04673AD-7508-8240-B1DC-74615B568711}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="2400" windowWidth="23720" windowHeight="18700"/>
+    <workbookView xWindow="26840" yWindow="4520" windowWidth="21700" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -615,11 +621,55 @@
     <t>0228-5 0301-1</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>0302-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0302-2</t>
+  </si>
+  <si>
+    <t>0302-3</t>
+  </si>
+  <si>
+    <t>0302-4</t>
+  </si>
+  <si>
+    <t>0303-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0303-2</t>
+  </si>
+  <si>
+    <t>nejumi + f014 f019</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + random(f014)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mean(0301-5 0302-2)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0302-2*0.7 ireko703*0.3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f014 f020</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f021</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -627,7 +677,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -837,7 +887,7 @@
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
@@ -873,22 +923,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M47" totalsRowShown="0">
-  <autoFilter ref="A1:M47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M50" totalsRowShown="0">
+  <autoFilter ref="A1:M50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="file"/>
-    <tableColumn id="4" name="instance"/>
-    <tableColumn id="13" name="feature"/>
-    <tableColumn id="3" name="feature size"/>
-    <tableColumn id="5" name="nfold"/>
-    <tableColumn id="6" name="loop"/>
-    <tableColumn id="7" name="eta"/>
-    <tableColumn id="8" name="nround mean"/>
-    <tableColumn id="9" name="cv AUC mean"/>
-    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" name="description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1183,35 +1233,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="13.625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1255,7 +1305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20" hidden="1">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1293,7 +1343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20" hidden="1">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1310,7 +1360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20" hidden="1">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1327,7 +1377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20" hidden="1">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1344,7 +1394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20" hidden="1">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1361,7 +1411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20" hidden="1">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1378,7 +1428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20" hidden="1">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1395,7 +1445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20" hidden="1">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1909,36 +1959,94 @@
       <c r="D35" t="s">
         <v>120</v>
       </c>
+      <c r="L35" s="1">
+        <v>0.70799999999999996</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.70499999999999996</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.70799999999999996</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.70799999999999996</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" s="1">
+        <f>0.71</f>
+        <v>0.71</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
@@ -1963,11 +2071,6 @@
     <row r="46" spans="1:12">
       <c r="A46">
         <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1986,20 +2089,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2187,14 +2290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B04673AD-7508-8240-B1DC-74615B568711}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{21141FA6-A012-404B-9F64-0924616937D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26840" yWindow="4520" windowWidth="21700" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15900" yWindow="6460" windowWidth="21700" windowHeight="18740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="blend" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -425,26 +425,6 @@
     <t>instance-1-3</t>
   </si>
   <si>
-    <t>nyanp</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ONODERA</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nejumi</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ireko</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>tosh</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>AvSigはOK</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -663,6 +643,34 @@
   </si>
   <si>
     <t>nejumi + f014 f020 f021</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0304-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0304-2</t>
+  </si>
+  <si>
+    <t>0305-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0305-2</t>
+  </si>
+  <si>
+    <t>0305-3</t>
+  </si>
+  <si>
+    <t>0305-4</t>
+  </si>
+  <si>
+    <t>nejumi + random(f014 f020 nyanp)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0302-2 + ireko707</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -987,7 +995,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1039,7 +1047,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1241,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -1496,7 +1504,7 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>290</v>
@@ -1522,7 +1530,7 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E12">
         <v>290</v>
@@ -1534,7 +1542,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1548,7 +1556,7 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J13">
         <v>0.74350000000000005</v>
@@ -1571,7 +1579,7 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L14" s="1">
         <v>0.69099999999999995</v>
@@ -1591,7 +1599,7 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L15" s="1">
         <v>0.70399999999999996</v>
@@ -1611,7 +1619,7 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L16" s="1">
         <v>0.7</v>
@@ -1625,13 +1633,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1646,7 +1654,7 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1660,7 +1668,7 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L18" s="1">
         <v>0.70099999999999996</v>
@@ -1697,13 +1705,13 @@
         <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L20" s="1">
         <v>0.69399999999999995</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1711,19 +1719,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L21" s="1">
         <v>0.69399999999999995</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1731,19 +1739,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L22" s="1">
         <v>0.70399999999999996</v>
       </c>
       <c r="M22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1751,19 +1759,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L23" s="1">
         <v>0.70399999999999996</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1771,13 +1779,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L24" s="1">
         <v>0.69699999999999995</v>
@@ -1788,13 +1796,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L25" s="1">
         <v>0.69399999999999995</v>
@@ -1805,13 +1813,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L26" s="1">
         <v>0.70399999999999996</v>
@@ -1822,13 +1830,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1847,13 +1855,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L28" s="1">
         <v>0.70199999999999996</v>
@@ -1864,13 +1872,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L29" s="1">
         <v>0.70199999999999996</v>
@@ -1881,10 +1889,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L30" s="1">
         <v>0.70699999999999996</v>
@@ -1895,13 +1903,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L31" s="1">
         <v>0.70599999999999996</v>
@@ -1912,10 +1920,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
         <v>112</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
       </c>
       <c r="L32" s="1">
         <v>0.70499999999999996</v>
@@ -1926,10 +1934,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
       </c>
       <c r="L33" s="1">
         <v>0.70499999999999996</v>
@@ -1940,10 +1948,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
         <v>114</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
       </c>
       <c r="L34" s="1">
         <v>0.70599999999999996</v>
@@ -1954,10 +1962,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
         <v>115</v>
-      </c>
-      <c r="D35" t="s">
-        <v>120</v>
       </c>
       <c r="L35" s="1">
         <v>0.70799999999999996</v>
@@ -1968,10 +1976,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L36" s="1">
         <v>0.70499999999999996</v>
@@ -1982,10 +1990,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L37" s="1">
         <v>0.70799999999999996</v>
@@ -1996,10 +2004,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L38" s="1">
         <v>0.70799999999999996</v>
@@ -2010,10 +2018,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L39" s="1">
         <f>0.71</f>
@@ -2025,10 +2033,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L40" s="1">
         <v>0.70699999999999996</v>
@@ -2039,10 +2047,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L41" s="1">
         <v>0.70699999999999996</v>
@@ -2052,25 +2060,65 @@
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>134</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.70899999999999996</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
         <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2290,69 +2338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB745D8-FBE5-F24B-8D9A-2FEF7D15B9FD}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7">
-        <f>SUM(B2:B6)</f>
-        <v>246</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{21141FA6-A012-404B-9F64-0924616937D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{93941545-7EE8-F149-AF15-E72BE70D8D36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="6460" windowWidth="21700" windowHeight="18740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29500" yWindow="1540" windowWidth="21700" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -650,27 +650,51 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>0305-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0305-2</t>
+  </si>
+  <si>
+    <t>0305-3</t>
+  </si>
+  <si>
+    <t>0305-4</t>
+  </si>
+  <si>
+    <t>nejumi + random(f014 f020 nyanp)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0302-2 + ireko707</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0305-5</t>
+  </si>
+  <si>
     <t>0304-2</t>
-  </si>
-  <si>
-    <t>0305-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0305-2</t>
-  </si>
-  <si>
-    <t>0305-3</t>
-  </si>
-  <si>
-    <t>0305-4</t>
-  </si>
-  <si>
-    <t>nejumi + random(f014 f020 nyanp)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0302-2 + ireko707</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0304-2 + nejumi711</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f023</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f022</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + sample(f014 f020, 0.8)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + sample(nyanp, 0.8)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1251,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -2064,7 +2088,7 @@
         <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L42" s="1">
         <v>0.70899999999999996</v>
@@ -2075,10 +2099,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L43" s="1">
         <v>0.71099999999999997</v>
@@ -2089,7 +2113,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2097,7 +2124,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2105,7 +2135,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="D46" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2113,12 +2146,24 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
         <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.71099999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB745D8-FBE5-F24B-8D9A-2FEF7D15B9FD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData/>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{93941545-7EE8-F149-AF15-E72BE70D8D36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29500" yWindow="1540" windowWidth="21700" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22940" yWindow="7460" windowWidth="21700" windowHeight="18740"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
     <sheet name="blend" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -701,7 +695,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -709,7 +703,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -919,7 +913,7 @@
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
@@ -955,22 +949,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M50" totalsRowShown="0">
-  <autoFilter ref="A1:M50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M50" totalsRowShown="0">
+  <autoFilter ref="A1:M50"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="2" name="file"/>
+    <tableColumn id="4" name="instance"/>
+    <tableColumn id="13" name="feature"/>
+    <tableColumn id="3" name="feature size"/>
+    <tableColumn id="5" name="nfold"/>
+    <tableColumn id="6" name="loop"/>
+    <tableColumn id="7" name="eta"/>
+    <tableColumn id="8" name="nround mean"/>
+    <tableColumn id="9" name="cv AUC mean"/>
+    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,7 +1013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1071,7 +1065,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1265,35 +1259,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="13.625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2139,6 +2133,9 @@
       </c>
       <c r="D46" t="s">
         <v>139</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2182,20 +2179,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2383,14 +2380,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB745D8-FBE5-F24B-8D9A-2FEF7D15B9FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="7460" windowWidth="21700" windowHeight="18740"/>
+    <workbookView xWindow="27380" yWindow="4660" windowWidth="23920" windowHeight="21460"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="152">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -689,6 +689,40 @@
   </si>
   <si>
     <t>nejumi + sample(nyanp, 0.8)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0306-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0306-2</t>
+  </si>
+  <si>
+    <t>0306-3</t>
+  </si>
+  <si>
+    <t>0306-4</t>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f024</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f025</t>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f026</t>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f027</t>
+  </si>
+  <si>
+    <t>instance-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>instance-1-1</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -783,7 +817,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,8 +897,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,8 +938,17 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -913,6 +962,7 @@
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -927,6 +977,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -949,8 +1000,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M50" totalsRowShown="0">
-  <autoFilter ref="A1:M50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M58" totalsRowShown="0">
+  <autoFilter ref="A1:M58"/>
   <tableColumns count="13">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="file"/>
@@ -1259,7 +1310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1267,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1488,7 +1539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1514,7 +1565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1540,7 +1591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1563,7 +1614,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1586,7 +1637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1606,7 +1657,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1626,7 +1677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1646,36 +1697,36 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="12">
+    <row r="17" spans="1:13" hidden="1">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
         <v>0.74399999999999999</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14">
+      <c r="K17" s="16"/>
+      <c r="L17" s="17">
         <v>0.70599999999999996</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1695,7 +1746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1712,7 +1763,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1732,7 +1783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1752,7 +1803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1772,7 +1823,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1792,7 +1843,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1809,7 +1860,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1826,7 +1877,7 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1843,7 +1894,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1868,7 +1919,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1885,7 +1936,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1947,7 +1998,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1961,7 +2012,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1975,7 +2026,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1989,7 +2040,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2003,7 +2054,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2017,7 +2068,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2031,7 +2082,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2046,21 +2097,30 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40">
+    <row r="40" spans="1:13">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="L40" s="1">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14">
         <v>0.70699999999999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2074,7 +2134,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2088,7 +2148,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2102,7 +2162,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2113,7 +2173,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2124,7 +2184,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2138,7 +2198,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2148,8 +2208,11 @@
       <c r="D47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="L47" s="1">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2162,6 +2225,77 @@
       <c r="L48" s="1">
         <v>0.71099999999999997</v>
       </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B5ADB431-CB7A-4B44-9990-47768CE5EF7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27380" yWindow="4660" windowWidth="23920" windowHeight="21460"/>
+    <workbookView xWindow="16240" yWindow="10040" windowWidth="18840" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
     <sheet name="blend" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="160">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -725,11 +731,41 @@
     <t>instance-1-1</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>best single</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0306-5</t>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f028</t>
+  </si>
+  <si>
+    <t>country share</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>avp share</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>city share</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>c_proc share</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>osrev share</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -737,7 +773,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -963,7 +999,7 @@
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
@@ -1000,22 +1036,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M58" totalsRowShown="0">
-  <autoFilter ref="A1:M58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M58" totalsRowShown="0">
+  <autoFilter ref="A1:M58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="file"/>
-    <tableColumn id="4" name="instance"/>
-    <tableColumn id="13" name="feature"/>
-    <tableColumn id="3" name="feature size"/>
-    <tableColumn id="5" name="nfold"/>
-    <tableColumn id="6" name="loop"/>
-    <tableColumn id="7" name="eta"/>
-    <tableColumn id="8" name="nround mean"/>
-    <tableColumn id="9" name="cv AUC mean"/>
-    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" name="description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,7 +1100,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1116,7 +1152,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1310,35 +1346,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C52"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="13.625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2118,7 +2154,9 @@
       <c r="L40" s="14">
         <v>0.70699999999999996</v>
       </c>
-      <c r="M40" s="12"/>
+      <c r="M40" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
@@ -2239,6 +2277,12 @@
       <c r="D49" t="s">
         <v>146</v>
       </c>
+      <c r="L49" s="1">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="M49" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
@@ -2253,6 +2297,9 @@
       <c r="D50" t="s">
         <v>147</v>
       </c>
+      <c r="M50" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
@@ -2267,6 +2314,9 @@
       <c r="D51" t="s">
         <v>148</v>
       </c>
+      <c r="M51" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
@@ -2280,6 +2330,31 @@
       </c>
       <c r="D52" t="s">
         <v>149</v>
+      </c>
+      <c r="M52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="M53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2313,20 +2388,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2514,12 +2589,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B5ADB431-CB7A-4B44-9990-47768CE5EF7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="10040" windowWidth="18840" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27240" yWindow="11300" windowWidth="21600" windowHeight="15440"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
     <sheet name="blend" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -765,7 +759,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -773,7 +767,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -999,7 +993,7 @@
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
@@ -1036,22 +1030,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M58" totalsRowShown="0">
-  <autoFilter ref="A1:M58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M58" totalsRowShown="0">
+  <autoFilter ref="A1:M58"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="2" name="file"/>
+    <tableColumn id="4" name="instance"/>
+    <tableColumn id="13" name="feature"/>
+    <tableColumn id="3" name="feature size"/>
+    <tableColumn id="5" name="nfold"/>
+    <tableColumn id="6" name="loop"/>
+    <tableColumn id="7" name="eta"/>
+    <tableColumn id="8" name="nround mean"/>
+    <tableColumn id="9" name="cv AUC mean"/>
+    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1100,7 +1094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1152,7 +1146,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1346,34 +1340,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="13.625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2297,6 +2291,9 @@
       <c r="D50" t="s">
         <v>147</v>
       </c>
+      <c r="L50" s="1">
+        <v>0.69699999999999995</v>
+      </c>
       <c r="M50" t="s">
         <v>156</v>
       </c>
@@ -2314,6 +2311,9 @@
       <c r="D51" t="s">
         <v>148</v>
       </c>
+      <c r="L51" s="1">
+        <v>0.70499999999999996</v>
+      </c>
       <c r="M51" t="s">
         <v>157</v>
       </c>
@@ -2331,6 +2331,9 @@
       <c r="D52" t="s">
         <v>149</v>
       </c>
+      <c r="L52" s="1">
+        <v>0.70599999999999996</v>
+      </c>
       <c r="M52" t="s">
         <v>158</v>
       </c>
@@ -2347,6 +2350,9 @@
       </c>
       <c r="D53" t="s">
         <v>154</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.69299999999999995</v>
       </c>
       <c r="M53" t="s">
         <v>159</v>
@@ -2388,20 +2394,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2589,12 +2595,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27240" yWindow="11300" windowWidth="21600" windowHeight="15440"/>
+    <workbookView xWindow="6940" yWindow="4460" windowWidth="21600" windowHeight="15440"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="160">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -847,7 +847,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +855,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,7 +984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -993,6 +999,7 @@
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1008,6 +1015,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1340,7 +1348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1351,7 +1359,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2231,17 +2239,28 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L47" s="1">
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14">
         <v>0.70799999999999996</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="4460" windowWidth="21600" windowHeight="15440"/>
+    <workbookView xWindow="11080" yWindow="11840" windowWidth="21600" windowHeight="15440"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -665,94 +665,95 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>0304-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0304-2 + nejumi711</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f023</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f022</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + sample(f014 f020, 0.8)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + sample(nyanp, 0.8)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0306-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0306-2</t>
+  </si>
+  <si>
+    <t>0306-3</t>
+  </si>
+  <si>
+    <t>0306-4</t>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f024</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f025</t>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f026</t>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f027</t>
+  </si>
+  <si>
+    <t>instance-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>instance-1-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>best single</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0306-5</t>
+  </si>
+  <si>
+    <t>nejumi + f014 f020 f028</t>
+  </si>
+  <si>
+    <t>country share</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>avp share</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>city share</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>c_proc share</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>osrev share</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>0305-5</t>
-  </si>
-  <si>
-    <t>0304-2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0304-2 + nejumi711</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nejumi + f014 f020 f023</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nejumi + f014 f020 f022</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nejumi + sample(f014 f020, 0.8)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nejumi + sample(nyanp, 0.8)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0306-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0306-2</t>
-  </si>
-  <si>
-    <t>0306-3</t>
-  </si>
-  <si>
-    <t>0306-4</t>
-  </si>
-  <si>
-    <t>nejumi + f014 f020 f024</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nejumi + f014 f020 f025</t>
-  </si>
-  <si>
-    <t>nejumi + f014 f020 f026</t>
-  </si>
-  <si>
-    <t>nejumi + f014 f020 f027</t>
-  </si>
-  <si>
-    <t>instance-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>instance-1-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>best single</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0306-5</t>
-  </si>
-  <si>
-    <t>nejumi + f014 f020 f028</t>
-  </si>
-  <si>
-    <t>country share</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>avp share</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>city share</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>c_proc share</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>osrev share</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1348,7 +1349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1359,7 +1360,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2157,7 +2158,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2193,7 +2194,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
         <v>134</v>
@@ -2210,7 +2211,7 @@
         <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2221,7 +2222,7 @@
         <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2232,7 +2233,7 @@
         <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L46" s="1">
         <v>0.70599999999999996</v>
@@ -2247,7 +2248,7 @@
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -2260,7 +2261,7 @@
         <v>0.70799999999999996</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2268,10 +2269,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L48" s="1">
         <v>0.71099999999999997</v>
@@ -2282,19 +2283,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L49" s="1">
         <v>0.69499999999999995</v>
       </c>
       <c r="M49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2302,19 +2303,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L50" s="1">
         <v>0.69699999999999995</v>
       </c>
       <c r="M50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2322,19 +2323,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
         <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L51" s="1">
         <v>0.70499999999999996</v>
       </c>
       <c r="M51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2342,19 +2343,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
         <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L52" s="1">
         <v>0.70599999999999996</v>
       </c>
       <c r="M52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2362,19 +2363,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L53" s="1">
         <v>0.69299999999999995</v>
       </c>
       <c r="M53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:13">

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{744BBB1B-2C04-5641-8C8E-D142B22C2AC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="11840" windowWidth="21600" windowHeight="15440"/>
+    <workbookView xWindow="25760" yWindow="5800" windowWidth="16340" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
     <sheet name="probed" sheetId="2" r:id="rId2"/>
     <sheet name="blend" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -760,7 +766,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
@@ -768,7 +774,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1001,7 +1007,7 @@
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
@@ -1039,22 +1045,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:M58" totalsRowShown="0">
-  <autoFilter ref="A1:M58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M58" totalsRowShown="0">
+  <autoFilter ref="A1:M58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="file"/>
-    <tableColumn id="4" name="instance"/>
-    <tableColumn id="13" name="feature"/>
-    <tableColumn id="3" name="feature size"/>
-    <tableColumn id="5" name="nfold"/>
-    <tableColumn id="6" name="loop"/>
-    <tableColumn id="7" name="eta"/>
-    <tableColumn id="8" name="nround mean"/>
-    <tableColumn id="9" name="cv AUC mean"/>
-    <tableColumn id="10" name="oof AUC" dataDxfId="1"/>
-    <tableColumn id="11" name="LB" dataDxfId="0"/>
-    <tableColumn id="12" name="description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="instance"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="feature"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="feature size"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nfold"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="loop"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eta"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="nround mean"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="cv AUC mean"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="oof AUC" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LB" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1349,34 +1355,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="13.625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2414,20 +2420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.75" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2615,12 +2621,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{744BBB1B-2C04-5641-8C8E-D142B22C2AC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9C2684B5-5976-5845-A3D9-8235E509F0C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25760" yWindow="5800" windowWidth="16340" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28600" yWindow="5100" windowWidth="19860" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="163">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -760,6 +760,18 @@
   </si>
   <si>
     <t>0305-5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nejumi + random(f014 f020 f023)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0308-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>baseline</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1045,8 +1057,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M58" totalsRowShown="0">
-  <autoFilter ref="A1:M58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:M62" totalsRowShown="0">
+  <autoFilter ref="A1:M62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="file"/>
@@ -1109,7 +1121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1161,7 +1173,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1363,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="20"/>
@@ -2143,27 +2155,27 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="12">
+      <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="14">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="17">
         <v>0.70699999999999996</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="M40" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2387,6 +2399,31 @@
     <row r="54" spans="1:13">
       <c r="A54">
         <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>160</v>
+      </c>
+      <c r="J54">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="M54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2403,6 +2440,18 @@
       <c r="K58" s="10"/>
       <c r="L58" s="11"/>
       <c r="M58" s="9"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="M62" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/other/benchmark.xlsx
+++ b/other/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Microsoft-Malware-Prediction/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9C2684B5-5976-5845-A3D9-8235E509F0C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3EE49F1C-F11D-5B47-9774-2DE9C736251D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28600" yWindow="5100" windowWidth="19860" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="10320" windowWidth="19860" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submissions" sheetId="1" r:id="rId1"/>
